--- a/DW+P5+-+Modele+plan+tests+acceptation (1).xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation (1).xlsx
@@ -192,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -432,90 +432,103 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -593,6 +606,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +828,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -873,36 +889,36 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="34.799999999999997">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34.799999999999997">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34.799999999999997">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -919,7 +935,7 @@
       <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -936,7 +952,7 @@
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -953,7 +969,7 @@
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -970,7 +986,7 @@
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -987,7 +1003,7 @@
       <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1004,7 +1020,7 @@
       <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1021,7 +1037,7 @@
       <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1038,7 +1054,7 @@
       <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1047,63 +1063,63 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999">
       <c r="A15" s="19"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999">
       <c r="A16" s="19"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999">
       <c r="A17" s="19"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999">
       <c r="A18" s="19"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999">
       <c r="A19" s="19"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="23"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999">
       <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999">
       <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" ht="18" thickBot="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
